--- a/Data/EC/NIT-9006523521.xlsx
+++ b/Data/EC/NIT-9006523521.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06BFB1F9-0645-4050-96FC-8F0DB60BF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{820E0BD7-D67B-4326-A0A5-1CA84C24E6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1FC40F1-2177-4568-AE6F-D33247B834FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{23FB3398-DDFA-4D5E-B50F-46C501468D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="105">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047378906</t>
+  </si>
+  <si>
+    <t>MARY SELA GONZALEZ SEÑAS</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
     <t>73182686</t>
   </si>
   <si>
@@ -74,61 +83,190 @@
     <t>1709</t>
   </si>
   <si>
+    <t>1007344245</t>
+  </si>
+  <si>
+    <t>JHON JAIRO HERNANDEZ CASTILLO</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>3800137</t>
+  </si>
+  <si>
+    <t>LUIS MUÑOZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1047436886</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS FERRER SUAREZ</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1047469764</t>
+  </si>
+  <si>
+    <t>CLEIDER LUIS HERNANDEZ ARRIETA</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1050959666</t>
+  </si>
+  <si>
+    <t>CHERIS JULIO MORELO</t>
+  </si>
+  <si>
+    <t>1002058345</t>
+  </si>
+  <si>
+    <t>DIOHER JOSE CABARCAS PRIMERA</t>
+  </si>
+  <si>
+    <t>73583198</t>
+  </si>
+  <si>
+    <t>ANGEL MUÑOZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>9283998</t>
+  </si>
+  <si>
+    <t>GILBERTO ACUÑA HUETO</t>
+  </si>
+  <si>
+    <t>7885436</t>
+  </si>
+  <si>
+    <t>RUBEN DARIO MARRUGO CANOLES</t>
+  </si>
+  <si>
+    <t>9149665</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS GARCIA CUADRADO</t>
+  </si>
+  <si>
+    <t>73352780</t>
+  </si>
+  <si>
+    <t>RAMIRO RUIZ LADEUS</t>
+  </si>
+  <si>
+    <t>35115455</t>
+  </si>
+  <si>
+    <t>ELIZABETH JIMENEZ CAUSIL</t>
+  </si>
+  <si>
     <t>1050949164</t>
   </si>
   <si>
     <t>MANUEL CASTILLO HERNANDEZ</t>
   </si>
   <si>
-    <t>3800137</t>
-  </si>
-  <si>
-    <t>LUIS MUÑOZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1047469764</t>
-  </si>
-  <si>
-    <t>CLEIDER LUIS HERNANDEZ ARRIETA</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1007344245</t>
-  </si>
-  <si>
-    <t>JHON JAIRO HERNANDEZ CASTILLO</t>
+    <t>1051446533</t>
+  </si>
+  <si>
+    <t>ELBERT BELTRAN BABILONIA</t>
+  </si>
+  <si>
+    <t>1002390252</t>
+  </si>
+  <si>
+    <t>KEYNER DAVID MUÑOZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1047420938</t>
+  </si>
+  <si>
+    <t>ALVARO JAVIER CUETO VELASCO</t>
+  </si>
+  <si>
+    <t>1044906906</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO DE ARCO ZABALETA</t>
   </si>
   <si>
     <t>1047477606</t>
@@ -137,13 +275,28 @@
     <t>JOSE MANUEL CARBALLO CASSIANI</t>
   </si>
   <si>
+    <t>94529873</t>
+  </si>
+  <si>
+    <t>MARTIN LEIVA GARCIA</t>
+  </si>
+  <si>
+    <t>1044924896</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS MARTINEZ PEREZ</t>
+  </si>
+  <si>
     <t>1052085753</t>
   </si>
   <si>
     <t>YOVANIS ENRIQUE HERNANDEZ MORA</t>
   </si>
   <si>
-    <t>1809</t>
+    <t>1143383825</t>
+  </si>
+  <si>
+    <t>KEVIN GARCIA MORENO</t>
   </si>
   <si>
     <t>PE</t>
@@ -155,145 +308,16 @@
     <t>GREGORIO ANTONIO MANAURE</t>
   </si>
   <si>
-    <t>94529873</t>
-  </si>
-  <si>
-    <t>MARTIN LEIVA GARCIA</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>7885436</t>
-  </si>
-  <si>
-    <t>RUBEN DARIO MARRUGO CANOLES</t>
-  </si>
-  <si>
-    <t>1044924896</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS MARTINEZ PEREZ</t>
-  </si>
-  <si>
-    <t>1002058345</t>
-  </si>
-  <si>
-    <t>DIOHER JOSE CABARCAS PRIMERA</t>
-  </si>
-  <si>
     <t>92448658</t>
   </si>
   <si>
     <t>NEY DE JESUS PINEDA CHIQUILLO</t>
   </si>
   <si>
-    <t>1044906906</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO DE ARCO ZABALETA</t>
-  </si>
-  <si>
     <t>8540015</t>
   </si>
   <si>
     <t>WILMER RAFAEL POLO PERTUZ</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>73352780</t>
-  </si>
-  <si>
-    <t>RAMIRO RUIZ LADEUS</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1051446533</t>
-  </si>
-  <si>
-    <t>ELBERT BELTRAN BABILONIA</t>
-  </si>
-  <si>
-    <t>9149665</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS GARCIA CUADRADO</t>
-  </si>
-  <si>
-    <t>1047420938</t>
-  </si>
-  <si>
-    <t>ALVARO JAVIER CUETO VELASCO</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1143383825</t>
-  </si>
-  <si>
-    <t>KEVIN GARCIA MORENO</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1047436886</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS FERRER SUAREZ</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>35115455</t>
-  </si>
-  <si>
-    <t>ELIZABETH JIMENEZ CAUSIL</t>
-  </si>
-  <si>
-    <t>1050959666</t>
-  </si>
-  <si>
-    <t>CHERIS JULIO MORELO</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -707,7 +731,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF70393-26FE-3553-3FB9-386B2C621E90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670717BD-3B05-F35F-8EEE-0D88FF0FAA82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,8 +1082,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4002EF59-7A93-4863-9105-EA9DF0AC68FE}">
-  <dimension ref="B2:J179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990B7B7C-3182-4FAA-BDDF-130428342C9C}">
+  <dimension ref="B2:J227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1083,7 +1107,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1128,7 +1152,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1160,12 +1184,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4706616</v>
+        <v>6151646</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1176,14 +1200,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C13" s="5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F13" s="5">
         <v>30</v>
@@ -1213,13 +1237,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1256,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>29509</v>
@@ -1273,19 +1297,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>9375</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1296,19 +1320,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>57742</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>1443525</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1319,19 +1343,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
         <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>1443525</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1342,19 +1366,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
         <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>1443525</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1365,19 +1389,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
         <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>1443525</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1388,19 +1412,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>1443525</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1411,19 +1435,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>19000</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1434,19 +1458,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>33529</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1457,19 +1481,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>33529</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1480,19 +1504,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>33529</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1503,19 +1527,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>33529</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1526,19 +1550,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>33529</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1549,19 +1573,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>33529</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1572,19 +1596,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>33529</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1595,19 +1619,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>22353</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1618,16 +1642,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>17708</v>
       </c>
       <c r="G33" s="18">
         <v>737717</v>
@@ -1641,16 +1665,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>737717</v>
@@ -1664,16 +1688,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>737717</v>
@@ -1687,16 +1711,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>737717</v>
@@ -1710,16 +1734,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>737717</v>
@@ -1733,16 +1757,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>737717</v>
@@ -1756,16 +1780,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>737717</v>
@@ -1779,16 +1803,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>737717</v>
@@ -1802,16 +1826,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>737717</v>
@@ -1825,16 +1849,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>737717</v>
@@ -1848,19 +1872,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F43" s="18">
-        <v>9375</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1871,19 +1895,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>9375</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1894,19 +1918,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18">
-        <v>9375</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1917,16 +1941,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>737717</v>
@@ -1940,19 +1964,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1963,13 +1987,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1986,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2006,22 +2030,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F50" s="18">
-        <v>7291</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2032,19 +2056,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F51" s="18">
-        <v>30208</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2055,19 +2079,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F52" s="18">
-        <v>24999</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2078,16 +2102,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G53" s="18">
         <v>737717</v>
@@ -2101,16 +2125,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
         <v>737717</v>
@@ -2124,19 +2148,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F55" s="18">
-        <v>30208</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2147,19 +2171,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F56" s="18">
-        <v>24999</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2170,19 +2194,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F57" s="18">
-        <v>24999</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2190,22 +2214,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2216,19 +2240,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F59" s="18">
-        <v>24999</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2239,19 +2263,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2262,19 +2286,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F61" s="18">
-        <v>15625</v>
+        <v>29509</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2285,19 +2309,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>18771</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2305,22 +2329,22 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2331,19 +2355,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2354,19 +2378,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2377,19 +2401,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G66" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2400,19 +2424,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2423,19 +2447,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2446,19 +2470,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2469,13 +2493,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2492,16 +2516,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>24999</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2515,19 +2539,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2535,19 +2559,19 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2561,16 +2585,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2584,19 +2608,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2607,19 +2631,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G76" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2627,22 +2651,22 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2653,19 +2677,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2676,19 +2700,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2699,19 +2723,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2722,19 +2746,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2745,13 +2769,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2768,13 +2792,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2791,19 +2815,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2814,19 +2838,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2834,22 +2858,22 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F86" s="18">
         <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2860,19 +2884,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2883,13 +2907,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2906,13 +2930,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2929,13 +2953,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2952,19 +2976,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2972,22 +2996,22 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2998,13 +3022,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3021,19 +3045,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3044,19 +3068,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3067,16 +3091,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G96" s="18">
         <v>737717</v>
@@ -3090,19 +3114,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3113,19 +3137,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3136,19 +3160,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3156,22 +3180,22 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3182,19 +3206,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3205,16 +3229,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G102" s="18">
         <v>737717</v>
@@ -3228,16 +3252,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G103" s="18">
         <v>737717</v>
@@ -3251,16 +3275,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G104" s="18">
         <v>737717</v>
@@ -3274,13 +3298,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3297,16 +3321,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>24999</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3320,13 +3344,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3340,16 +3364,16 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3366,19 +3390,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G109" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3389,19 +3413,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>25396</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3412,19 +3436,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3435,13 +3459,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3455,22 +3479,22 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3481,19 +3505,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F114" s="18">
-        <v>22353</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>838242</v>
+        <v>737717</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3504,13 +3528,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3527,19 +3551,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F116" s="18">
-        <v>25396</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3550,19 +3574,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F117" s="18">
-        <v>33529</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>838242</v>
+        <v>737717</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3573,13 +3597,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3596,19 +3620,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3619,19 +3643,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F120" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3639,22 +3663,22 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D121" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="F121" s="18">
         <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3665,19 +3689,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3688,13 +3712,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3711,19 +3735,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3734,19 +3758,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="F125" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3757,19 +3781,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F126" s="18">
-        <v>33529</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>838242</v>
+        <v>737717</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3780,19 +3804,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="F127" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3800,22 +3824,22 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3826,19 +3850,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3849,16 +3873,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G130" s="18">
         <v>737717</v>
@@ -3872,16 +3896,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G131" s="18">
         <v>737717</v>
@@ -3895,16 +3919,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G132" s="18">
         <v>737717</v>
@@ -3918,19 +3942,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3941,19 +3965,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3964,19 +3988,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F135" s="18">
-        <v>33529</v>
+        <v>29509</v>
       </c>
       <c r="G135" s="18">
-        <v>838242</v>
+        <v>737717</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3987,16 +4011,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F136" s="18">
-        <v>57742</v>
+        <v>29509</v>
       </c>
       <c r="G136" s="18">
         <v>737717</v>
@@ -4010,19 +4034,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F137" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G137" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4030,22 +4054,22 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4056,19 +4080,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F139" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G139" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4079,16 +4103,16 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G140" s="18">
         <v>737717</v>
@@ -4102,16 +4126,16 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G141" s="18">
         <v>781242</v>
@@ -4122,16 +4146,16 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4148,19 +4172,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4171,13 +4195,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4194,19 +4218,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="F145" s="18">
-        <v>33529</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4217,19 +4241,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="F146" s="18">
-        <v>33529</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4240,19 +4264,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4263,19 +4287,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4286,19 +4310,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F149" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4309,13 +4333,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4332,13 +4356,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4352,16 +4376,16 @@
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D152" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E152" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4378,19 +4402,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4401,13 +4425,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4424,19 +4448,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D155" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D155" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="E155" s="16" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F155" s="18">
-        <v>33529</v>
+        <v>17708</v>
       </c>
       <c r="G155" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4447,13 +4471,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4470,19 +4494,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4490,16 +4514,16 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4516,19 +4540,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F159" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4539,19 +4563,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D160" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D160" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="E160" s="16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F160" s="18">
-        <v>33529</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4559,16 +4583,16 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4585,19 +4609,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F162" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4608,19 +4632,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4631,13 +4655,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4654,13 +4678,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4677,19 +4701,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4700,19 +4724,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D167" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D167" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="E167" s="16" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F167" s="18">
-        <v>19000</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4723,19 +4747,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F168" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4743,19 +4767,19 @@
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E169" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C169" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="F169" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
         <v>781242</v>
@@ -4769,16 +4793,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F170" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
         <v>781242</v>
@@ -4792,19 +4816,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="F171" s="18">
-        <v>18771</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4815,16 +4839,16 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F172" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
         <v>781242</v>
@@ -4834,56 +4858,1160 @@
       <c r="J172" s="20"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E173" s="22" t="s">
+      <c r="B173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G173" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="20"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F174" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G174" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="20"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F175" s="18">
+        <v>24999</v>
+      </c>
+      <c r="G175" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="20"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="18">
+        <v>9375</v>
+      </c>
+      <c r="G176" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="20"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G177" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="20"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B178" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F178" s="18">
+        <v>30208</v>
+      </c>
+      <c r="G178" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="20"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B179" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G179" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="20"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B180" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F180" s="18">
+        <v>30208</v>
+      </c>
+      <c r="G180" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="20"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B181" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G181" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="20"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G182" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="20"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B183" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F183" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G183" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="20"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B184" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" s="18">
+        <v>9375</v>
+      </c>
+      <c r="G184" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="20"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B185" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F173" s="24">
+      <c r="D185" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F185" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G185" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="20"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B186" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F186" s="18">
         <v>17708</v>
       </c>
-      <c r="G173" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H173" s="25"/>
-      <c r="I173" s="25"/>
-      <c r="J173" s="26"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C178" s="32"/>
-      <c r="H178" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C179" s="32"/>
-      <c r="H179" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
+      <c r="G186" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="20"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B187" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F187" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G187" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="20"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B188" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G188" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="20"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B189" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F189" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G189" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="20"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B190" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F190" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G190" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="20"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B191" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G191" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="20"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B192" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F192" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G192" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="20"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B193" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F193" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G193" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="20"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B194" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F194" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G194" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="20"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B195" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F195" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G195" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="20"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B196" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F196" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G196" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H196" s="19"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="20"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B197" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G197" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H197" s="19"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="20"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B198" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F198" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G198" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H198" s="19"/>
+      <c r="I198" s="19"/>
+      <c r="J198" s="20"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B199" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F199" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G199" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="20"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B200" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F200" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G200" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="20"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B201" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F201" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G201" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="20"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B202" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F202" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G202" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="20"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B203" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F203" s="18">
+        <v>7291</v>
+      </c>
+      <c r="G203" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="20"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B204" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F204" s="18">
+        <v>17708</v>
+      </c>
+      <c r="G204" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="20"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B205" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G205" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="20"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B206" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F206" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G206" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="20"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B207" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F207" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G207" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="20"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B208" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F208" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G208" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="20"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B209" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F209" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G209" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="20"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B210" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F210" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G210" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="20"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B211" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F211" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G211" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="20"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B212" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G212" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="20"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B213" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F213" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G213" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="20"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B214" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F214" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G214" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="20"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B215" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F215" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G215" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="20"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B216" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F216" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G216" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="20"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F217" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G217" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="20"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F218" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G218" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="20"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F219" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G219" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="20"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B220" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F220" s="18">
+        <v>24999</v>
+      </c>
+      <c r="G220" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="20"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B221" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D221" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F221" s="24">
+        <v>15625</v>
+      </c>
+      <c r="G221" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H221" s="25"/>
+      <c r="I221" s="25"/>
+      <c r="J221" s="26"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B226" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C226" s="32"/>
+      <c r="H226" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B227" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C227" s="32"/>
+      <c r="H227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="H179:J179"/>
-    <mergeCell ref="H178:J178"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="H227:J227"/>
+    <mergeCell ref="H226:J226"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006523521.xlsx
+++ b/Data/EC/NIT-9006523521.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{820E0BD7-D67B-4326-A0A5-1CA84C24E6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86831E0F-4156-41A5-AC95-A4F0719C9EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{23FB3398-DDFA-4D5E-B50F-46C501468D2D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F32F3B29-260C-4E2A-B054-57B8925B1230}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="97">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,22 +65,61 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1047378906</t>
-  </si>
-  <si>
-    <t>MARY SELA GONZALEZ SEÑAS</t>
+    <t>73182686</t>
+  </si>
+  <si>
+    <t>RICARDO MANUEL JIMENEZ SALAZAR</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1050949164</t>
+  </si>
+  <si>
+    <t>MANUEL CASTILLO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>3800137</t>
+  </si>
+  <si>
+    <t>LUIS MUÑOZ MARTINEZ</t>
   </si>
   <si>
     <t>1710</t>
   </si>
   <si>
-    <t>73182686</t>
-  </si>
-  <si>
-    <t>RICARDO MANUEL JIMENEZ SALAZAR</t>
-  </si>
-  <si>
-    <t>1709</t>
+    <t>1047469764</t>
+  </si>
+  <si>
+    <t>CLEIDER LUIS HERNANDEZ ARRIETA</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
   </si>
   <si>
     <t>1007344245</t>
@@ -92,232 +131,169 @@
     <t>1808</t>
   </si>
   <si>
-    <t>3800137</t>
-  </si>
-  <si>
-    <t>LUIS MUÑOZ MARTINEZ</t>
+    <t>1047477606</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL CARBALLO CASSIANI</t>
+  </si>
+  <si>
+    <t>1052085753</t>
+  </si>
+  <si>
+    <t>YOVANIS ENRIQUE HERNANDEZ MORA</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>925207806081961</t>
+  </si>
+  <si>
+    <t>GREGORIO ANTONIO MANAURE</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1002058345</t>
+  </si>
+  <si>
+    <t>DIOHER JOSE CABARCAS PRIMERA</t>
+  </si>
+  <si>
+    <t>7885436</t>
+  </si>
+  <si>
+    <t>RUBEN DARIO MARRUGO CANOLES</t>
+  </si>
+  <si>
+    <t>1044906906</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO DE ARCO ZABALETA</t>
+  </si>
+  <si>
+    <t>94529873</t>
+  </si>
+  <si>
+    <t>MARTIN LEIVA GARCIA</t>
+  </si>
+  <si>
+    <t>1044924896</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS MARTINEZ PEREZ</t>
+  </si>
+  <si>
+    <t>92448658</t>
+  </si>
+  <si>
+    <t>NEY DE JESUS PINEDA CHIQUILLO</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>8540015</t>
+  </si>
+  <si>
+    <t>WILMER RAFAEL POLO PERTUZ</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>9149665</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS GARCIA CUADRADO</t>
+  </si>
+  <si>
+    <t>73352780</t>
+  </si>
+  <si>
+    <t>RAMIRO RUIZ LADEUS</t>
+  </si>
+  <si>
+    <t>1051446533</t>
+  </si>
+  <si>
+    <t>ELBERT BELTRAN BABILONIA</t>
+  </si>
+  <si>
+    <t>1047420938</t>
+  </si>
+  <si>
+    <t>ALVARO JAVIER CUETO VELASCO</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1143383825</t>
+  </si>
+  <si>
+    <t>KEVIN GARCIA MORENO</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1047436886</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS FERRER SUAREZ</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1050959666</t>
+  </si>
+  <si>
+    <t>CHERIS JULIO MORELO</t>
+  </si>
+  <si>
+    <t>35115455</t>
+  </si>
+  <si>
+    <t>ELIZABETH JIMENEZ CAUSIL</t>
+  </si>
+  <si>
+    <t>1908</t>
   </si>
   <si>
     <t>1909</t>
   </si>
   <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1047436886</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS FERRER SUAREZ</t>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
   <si>
     <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1047469764</t>
-  </si>
-  <si>
-    <t>CLEIDER LUIS HERNANDEZ ARRIETA</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1050959666</t>
-  </si>
-  <si>
-    <t>CHERIS JULIO MORELO</t>
-  </si>
-  <si>
-    <t>1002058345</t>
-  </si>
-  <si>
-    <t>DIOHER JOSE CABARCAS PRIMERA</t>
-  </si>
-  <si>
-    <t>73583198</t>
-  </si>
-  <si>
-    <t>ANGEL MUÑOZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>9283998</t>
-  </si>
-  <si>
-    <t>GILBERTO ACUÑA HUETO</t>
-  </si>
-  <si>
-    <t>7885436</t>
-  </si>
-  <si>
-    <t>RUBEN DARIO MARRUGO CANOLES</t>
-  </si>
-  <si>
-    <t>9149665</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS GARCIA CUADRADO</t>
-  </si>
-  <si>
-    <t>73352780</t>
-  </si>
-  <si>
-    <t>RAMIRO RUIZ LADEUS</t>
-  </si>
-  <si>
-    <t>35115455</t>
-  </si>
-  <si>
-    <t>ELIZABETH JIMENEZ CAUSIL</t>
-  </si>
-  <si>
-    <t>1050949164</t>
-  </si>
-  <si>
-    <t>MANUEL CASTILLO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1051446533</t>
-  </si>
-  <si>
-    <t>ELBERT BELTRAN BABILONIA</t>
-  </si>
-  <si>
-    <t>1002390252</t>
-  </si>
-  <si>
-    <t>KEYNER DAVID MUÑOZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1047420938</t>
-  </si>
-  <si>
-    <t>ALVARO JAVIER CUETO VELASCO</t>
-  </si>
-  <si>
-    <t>1044906906</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO DE ARCO ZABALETA</t>
-  </si>
-  <si>
-    <t>1047477606</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL CARBALLO CASSIANI</t>
-  </si>
-  <si>
-    <t>94529873</t>
-  </si>
-  <si>
-    <t>MARTIN LEIVA GARCIA</t>
-  </si>
-  <si>
-    <t>1044924896</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS MARTINEZ PEREZ</t>
-  </si>
-  <si>
-    <t>1052085753</t>
-  </si>
-  <si>
-    <t>YOVANIS ENRIQUE HERNANDEZ MORA</t>
-  </si>
-  <si>
-    <t>1143383825</t>
-  </si>
-  <si>
-    <t>KEVIN GARCIA MORENO</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>925207806081961</t>
-  </si>
-  <si>
-    <t>GREGORIO ANTONIO MANAURE</t>
-  </si>
-  <si>
-    <t>92448658</t>
-  </si>
-  <si>
-    <t>NEY DE JESUS PINEDA CHIQUILLO</t>
-  </si>
-  <si>
-    <t>8540015</t>
-  </si>
-  <si>
-    <t>WILMER RAFAEL POLO PERTUZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -416,7 +392,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -429,9 +407,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -631,23 +607,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,10 +651,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,7 +707,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670717BD-3B05-F35F-8EEE-0D88FF0FAA82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4294485-588B-F6EE-9472-42E95E71557E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,8 +1058,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990B7B7C-3182-4FAA-BDDF-130428342C9C}">
-  <dimension ref="B2:J227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA78E2-4230-444E-9CAD-292F3B52BE80}">
+  <dimension ref="B2:J179"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1107,7 +1083,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1152,7 +1128,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1184,12 +1160,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6151646</v>
+        <v>4706616</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1200,14 +1176,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F13" s="5">
         <v>30</v>
@@ -1237,13 +1213,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1280,13 +1256,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1297,19 +1273,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="18">
-        <v>9375</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1443525</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1320,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>57742</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>1443525</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1343,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>1443525</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1366,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F21" s="18">
         <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>1443525</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1389,19 +1365,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F22" s="18">
         <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>1443525</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1412,19 +1388,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>1443525</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1435,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>19000</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1458,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>33529</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1481,19 +1457,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>33529</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1504,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>33529</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>838242</v>
+        <v>1443525</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1527,19 +1503,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>33529</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1550,19 +1526,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>33529</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1573,19 +1549,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>33529</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>838242</v>
+        <v>1443525</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1596,19 +1572,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>33529</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1619,19 +1595,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>22353</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>838242</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1642,19 +1618,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
-        <v>17708</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>1443525</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1665,19 +1641,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1688,19 +1664,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1711,19 +1687,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1734,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1757,19 +1733,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1780,19 +1756,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1803,19 +1779,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1826,19 +1802,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1849,19 +1825,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>9375</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1872,19 +1848,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1895,19 +1871,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1918,19 +1894,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>9375</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1941,19 +1917,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>9375</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1964,19 +1940,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F47" s="18">
         <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1987,19 +1963,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F48" s="18">
         <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2010,19 +1986,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="E49" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F49" s="18">
         <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2030,22 +2006,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D50" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>7291</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2056,19 +2032,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2079,19 +2055,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>24999</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2102,19 +2078,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>24999</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2125,19 +2101,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F54" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2148,19 +2124,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>24999</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2171,19 +2147,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>30208</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2194,19 +2170,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F57" s="18">
-        <v>29509</v>
+        <v>30208</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2217,19 +2193,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E58" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2237,22 +2213,22 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F59" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2263,19 +2239,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>24999</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2286,19 +2262,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2309,19 +2285,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F62" s="18">
-        <v>18771</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2332,19 +2308,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F63" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2355,19 +2331,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F64" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2378,19 +2354,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F65" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2401,19 +2377,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D66" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F66" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2424,19 +2400,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D67" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F67" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2447,19 +2423,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D68" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F68" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2467,22 +2443,22 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D69" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F69" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2493,13 +2469,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2522,10 +2498,10 @@
         <v>54</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F71" s="18">
-        <v>24999</v>
+        <v>15625</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2539,16 +2515,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F72" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2562,16 +2538,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F73" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2582,19 +2558,19 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F74" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2608,16 +2584,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F75" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2631,19 +2607,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F76" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2660,13 +2636,13 @@
         <v>58</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2677,19 +2653,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2700,19 +2676,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2723,19 +2699,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2746,19 +2722,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2766,22 +2742,22 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2792,19 +2768,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2815,19 +2791,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2838,19 +2814,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2861,19 +2837,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2884,19 +2860,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2904,22 +2880,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2930,19 +2906,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2953,19 +2929,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2976,19 +2952,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2999,19 +2975,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3022,19 +2998,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3042,22 +3018,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F94" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3068,19 +3044,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F95" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3091,19 +3067,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F96" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3114,19 +3090,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F97" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3137,19 +3113,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F98" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3160,19 +3136,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F99" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3183,19 +3159,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F100" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3203,22 +3179,22 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F101" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3229,19 +3205,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F102" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3252,19 +3228,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F103" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3275,19 +3251,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F104" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3298,13 +3274,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3321,16 +3297,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F106" s="18">
-        <v>24999</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3341,16 +3317,16 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3367,13 +3343,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3390,19 +3366,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F109" s="18">
-        <v>33125</v>
+        <v>22353</v>
       </c>
       <c r="G109" s="18">
-        <v>828116</v>
+        <v>838242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3413,19 +3389,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F110" s="18">
-        <v>25396</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3436,19 +3412,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="F111" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3459,19 +3435,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3479,22 +3455,22 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3505,19 +3481,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3528,19 +3504,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>33529</v>
       </c>
       <c r="G115" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3551,19 +3527,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3574,19 +3550,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G117" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3597,19 +3573,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>25396</v>
       </c>
       <c r="G118" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3620,19 +3596,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3643,19 +3619,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3663,22 +3639,22 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3689,19 +3665,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3712,19 +3688,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>33529</v>
       </c>
       <c r="G123" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3735,19 +3711,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3758,19 +3734,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G125" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3781,19 +3757,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G126" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3804,19 +3780,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3827,19 +3803,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3847,22 +3823,22 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F129" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3873,19 +3849,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F130" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3896,19 +3872,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F131" s="18">
-        <v>29509</v>
+        <v>57742</v>
       </c>
       <c r="G131" s="18">
-        <v>737717</v>
+        <v>1443525</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3919,19 +3895,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F132" s="18">
-        <v>29509</v>
+        <v>33529</v>
       </c>
       <c r="G132" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3942,19 +3918,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F133" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3965,19 +3941,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F134" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G134" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3988,19 +3964,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F135" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4011,19 +3987,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F136" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4031,22 +4007,22 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F137" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4057,19 +4033,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F138" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4080,19 +4056,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F139" s="18">
-        <v>29509</v>
+        <v>33529</v>
       </c>
       <c r="G139" s="18">
-        <v>737717</v>
+        <v>838242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4103,19 +4079,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F140" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4126,19 +4102,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F141" s="18">
-        <v>17708</v>
+        <v>33125</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4149,13 +4125,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4172,13 +4148,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4192,16 +4168,16 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4218,13 +4194,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4241,19 +4217,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>33529</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>838242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4264,13 +4240,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4287,19 +4263,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4310,13 +4286,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4333,13 +4309,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4353,16 +4329,16 @@
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4379,13 +4355,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4402,19 +4378,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>33529</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>838242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4425,13 +4401,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4448,19 +4424,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F155" s="18">
-        <v>17708</v>
+        <v>33125</v>
       </c>
       <c r="G155" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4471,13 +4447,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4494,13 +4470,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4514,16 +4490,16 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4540,13 +4516,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4569,13 +4545,13 @@
         <v>72</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>33529</v>
       </c>
       <c r="G160" s="18">
-        <v>781242</v>
+        <v>838242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4586,13 +4562,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4609,19 +4585,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G162" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4632,13 +4608,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4655,13 +4631,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4675,16 +4651,16 @@
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4701,13 +4677,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
@@ -4730,13 +4706,13 @@
         <v>72</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F167" s="18">
-        <v>31249</v>
+        <v>19000</v>
       </c>
       <c r="G167" s="18">
-        <v>781242</v>
+        <v>838242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4747,16 +4723,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F168" s="18">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G168" s="18">
         <v>781242</v>
@@ -4770,19 +4746,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>18771</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4793,16 +4769,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F170" s="18">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G170" s="18">
         <v>781242</v>
@@ -4816,16 +4792,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G171" s="18">
         <v>781242</v>
@@ -4836,19 +4812,19 @@
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F172" s="18">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G172" s="18">
         <v>781242</v>
@@ -4858,1160 +4834,56 @@
       <c r="J172" s="20"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F173" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G173" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F174" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G174" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F175" s="18">
-        <v>24999</v>
-      </c>
-      <c r="G175" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F176" s="18">
-        <v>9375</v>
-      </c>
-      <c r="G176" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F177" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G177" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
+      <c r="B173" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E173" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F173" s="24">
+        <v>17708</v>
+      </c>
+      <c r="G173" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="26"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F178" s="18">
-        <v>30208</v>
-      </c>
-      <c r="G178" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
+      <c r="B178" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C178" s="32"/>
+      <c r="H178" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F179" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G179" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B180" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F180" s="18">
-        <v>30208</v>
-      </c>
-      <c r="G180" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B181" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F181" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G181" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B182" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F182" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G182" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B183" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F183" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G183" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F184" s="18">
-        <v>9375</v>
-      </c>
-      <c r="G184" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B185" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F185" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G185" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B186" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F186" s="18">
-        <v>17708</v>
-      </c>
-      <c r="G186" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B187" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F187" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G187" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B188" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F188" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G188" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B189" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F189" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G189" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B190" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F190" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G190" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B191" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F191" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G191" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B192" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F192" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G192" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B193" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F193" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G193" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B194" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F194" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G194" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B195" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F195" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G195" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B196" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D196" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F196" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G196" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B197" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F197" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G197" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B198" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F198" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G198" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B199" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E199" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F199" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G199" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B200" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F200" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G200" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B201" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F201" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G201" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B202" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C202" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F202" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G202" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B203" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F203" s="18">
-        <v>7291</v>
-      </c>
-      <c r="G203" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B204" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F204" s="18">
-        <v>17708</v>
-      </c>
-      <c r="G204" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B205" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F205" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G205" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F206" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G206" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B207" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F207" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G207" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B208" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D208" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F208" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G208" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B209" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F209" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G209" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B210" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F210" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G210" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B211" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F211" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G211" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B212" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F212" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G212" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B213" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F213" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G213" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B214" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F214" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G214" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B215" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F215" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G215" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B216" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D216" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F216" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G216" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B217" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F217" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G217" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F218" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G218" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B219" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F219" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G219" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B220" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F220" s="18">
-        <v>24999</v>
-      </c>
-      <c r="G220" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B221" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D221" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F221" s="24">
-        <v>15625</v>
-      </c>
-      <c r="G221" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H221" s="25"/>
-      <c r="I221" s="25"/>
-      <c r="J221" s="26"/>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B226" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C226" s="32"/>
-      <c r="H226" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B227" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C227" s="32"/>
-      <c r="H227" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
+      <c r="B179" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C179" s="32"/>
+      <c r="H179" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="H227:J227"/>
-    <mergeCell ref="H226:J226"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="H178:J178"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
